--- a/chi-sq intuition.xlsx
+++ b/chi-sq intuition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12077a5f6f3d8bd8/Documents/EDAV2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minau\OneDrive\Documents\EDAV2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A302EEEA-9CE2-4047-8F01-C83D012297CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA4736-7E2E-4808-827F-4C295C736298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{C92C93D0-EE64-45A9-B14B-E24E03BAA11F}"/>
+    <workbookView xWindow="1650" yWindow="2670" windowWidth="16200" windowHeight="9982" xr2:uid="{C92C93D0-EE64-45A9-B14B-E24E03BAA11F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Category</t>
   </si>
@@ -66,12 +66,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Sample size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,141 +433,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AA3814-E8A1-4311-8231-58405FB84F36}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2">
-        <f>_xlfn.CHISQ.TEST(C3:C4,B3:B4)</f>
-        <v>3.3894853524689267E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H2" s="4">
+        <f>_xlfn.CHISQ.TEST(D3:D4,C3:C4)</f>
+        <v>1.8508345351045444E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>8661</v>
       </c>
       <c r="C3">
-        <v>85</v>
-      </c>
-      <c r="E3" t="s">
+        <f>B3*$E$5</f>
+        <v>901.65051378516489</v>
+      </c>
+      <c r="D3">
+        <v>1031</v>
+      </c>
+      <c r="E3">
+        <f>D3/B3</f>
+        <v>0.11903937189700958</v>
+      </c>
+      <c r="F3">
+        <f>C3/$C$5</f>
+        <v>0.48632713796395088</v>
+      </c>
+      <c r="G3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1">
-        <f>_xlfn.CHISQ.INV.RT(F2,1)</f>
-        <v>4.5000000000000018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="H3" s="1">
+        <f>_xlfn.CHISQ.INV.RT(H2,1)</f>
+        <v>36.124725749629299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>9148</v>
       </c>
       <c r="C4">
-        <f>B5-C3</f>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <f>B4*$E$5</f>
+        <v>952.34948621483522</v>
+      </c>
+      <c r="D4">
+        <v>823</v>
+      </c>
+      <c r="E4">
+        <f>D4/B4</f>
+        <v>8.9965019676432001E-2</v>
+      </c>
+      <c r="F4">
+        <f>C4/$C$5</f>
+        <v>0.51367286203604923</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5">
         <f>SUM(B3:B4)</f>
-        <v>200</v>
+        <v>17809</v>
       </c>
       <c r="C5">
         <f>SUM(C3:C4)</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>1854</v>
+      </c>
+      <c r="D5">
+        <f>SUM(D3:D4)</f>
+        <v>1854</v>
+      </c>
+      <c r="E5">
+        <f>D5/B5</f>
+        <v>0.10410466618002134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
-        <f>_xlfn.CHISQ.TEST(C9:C11,B9:B11)</f>
+      <c r="H8" s="2">
+        <f>_xlfn.CHISQ.TEST(D9:D11,C9:C11)</f>
         <v>4.0867714384640666E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="1">
-        <f>_xlfn.CHISQ.INV.RT(F8,2)</f>
+      <c r="H9" s="1">
+        <f>_xlfn.CHISQ.INV.RT(H8,2)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>50</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>100</v>
       </c>
-      <c r="C11">
-        <f>B12-C10-C9</f>
+      <c r="D11">
+        <f>C12-D10-D9</f>
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B12">
-        <f>SUM(B9:B11)</f>
-        <v>200</v>
-      </c>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C12">
         <f>SUM(C9:C11)</f>
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D9:D11)</f>
         <v>200</v>
       </c>
     </row>
